--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Route Controller</t>
   </si>
   <si>
-    <t xml:space="preserve">Trip Controller </t>
-  </si>
-  <si>
     <t>DatewiseTrip Controller</t>
   </si>
   <si>
-    <t xml:space="preserve">Authentication </t>
-  </si>
-  <si>
     <t>Ticket Model,Service and DataAccess</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Route  Model,Service and DataAccess</t>
   </si>
   <si>
-    <t>Trip Model,Service and DataAccess</t>
-  </si>
-  <si>
     <t>Datewisetrip Model, Service and Dataaccess</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Model ,Service and DataAccess creation for Route Controller</t>
   </si>
   <si>
-    <t>Model ,Service and DataAccess creation for Trip Controller</t>
-  </si>
-  <si>
     <t>Model ,Service and DataAccess creation for DatewiseTrip Controller</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t xml:space="preserve">Create DateWiseTrip Controller and View </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Trip Controller and View </t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Route Controller and View </t>
   </si>
   <si>
@@ -138,12 +123,6 @@
     <t xml:space="preserve">Create Ticket Controller and View </t>
   </si>
   <si>
-    <t xml:space="preserve">User authentication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Search Controller,action and View </t>
-  </si>
-  <si>
     <t>Search ticket</t>
   </si>
   <si>
@@ -154,6 +133,87 @@
   </si>
   <si>
     <t>Ticket Booking</t>
+  </si>
+  <si>
+    <t>Admin login</t>
+  </si>
+  <si>
+    <t>Complete the login system for admin panel</t>
+  </si>
+  <si>
+    <t>Design Trip form</t>
+  </si>
+  <si>
+    <t>Design A form for adding Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Trip </t>
+  </si>
+  <si>
+    <t>Complete addition process for trip for every bus operator,for every route</t>
+  </si>
+  <si>
+    <t>Edit Trip</t>
+  </si>
+  <si>
+    <t>Delete trip</t>
+  </si>
+  <si>
+    <t>Complete deletion process for trip</t>
+  </si>
+  <si>
+    <t>Complete editing process for trip</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>0.5 hour</t>
+  </si>
+  <si>
+    <t>Nandan</t>
+  </si>
+  <si>
+    <t>Test the full project</t>
+  </si>
+  <si>
+    <t>3 hour</t>
+  </si>
+  <si>
+    <t>Deploy the project</t>
+  </si>
+  <si>
+    <t>Search form design</t>
+  </si>
+  <si>
+    <t>Design the form for Ticket search</t>
+  </si>
+  <si>
+    <t>User can search ticket for desired location and date</t>
+  </si>
+  <si>
+    <t>User can filter the search result</t>
+  </si>
+  <si>
+    <t>Modify Search</t>
+  </si>
+  <si>
+    <t>User can modify his search date and location</t>
+  </si>
+  <si>
+    <t>Search result View</t>
+  </si>
+  <si>
+    <t>Design the view page where search result will be shown</t>
+  </si>
+  <si>
+    <t>User can see available seat for his desired trip</t>
+  </si>
+  <si>
+    <t>Seat plan and allocation View</t>
+  </si>
+  <si>
+    <t>Design the view page where Seat plan and availability will be shown</t>
   </si>
 </sst>
 </file>
@@ -518,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +612,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -563,10 +623,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -574,10 +634,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -588,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -596,10 +656,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -607,10 +667,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -618,28 +678,32 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -647,10 +711,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -658,10 +722,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -669,21 +733,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -691,10 +753,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -702,10 +764,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -713,10 +775,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -724,10 +786,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -735,10 +797,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -746,10 +808,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -757,10 +819,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -768,53 +830,145 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{713E4DC7-10B2-42CC-BD2F-BC91845F371F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -214,12 +215,36 @@
   </si>
   <si>
     <t>Design the view page where Seat plan and availability will be shown</t>
+  </si>
+  <si>
+    <t>Route Adding View</t>
+  </si>
+  <si>
+    <t>Design the view where admin can add routes by selecting location by dropdown</t>
+  </si>
+  <si>
+    <t>tasmia</t>
+  </si>
+  <si>
+    <t>Bus operator view</t>
+  </si>
+  <si>
+    <t>Design a form for adding a new bus operator</t>
+  </si>
+  <si>
+    <t>0.5hours</t>
+  </si>
+  <si>
+    <t>Seat base in database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seats will be assigned in the database </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,6 +312,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -334,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,9 +395,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +447,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,11 +639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,10 +784,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -733,30 +795,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -764,10 +826,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -775,10 +837,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -786,10 +848,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -797,91 +859,95 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>51</v>
@@ -890,35 +956,43 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>51</v>
@@ -927,48 +1001,85 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -989,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{713E4DC7-10B2-42CC-BD2F-BC91845F371F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD2FBEA1-DCFA-4967-B642-F67D2F0F14B9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Test the full project</t>
   </si>
   <si>
-    <t>3 hour</t>
-  </si>
-  <si>
     <t>Deploy the project</t>
   </si>
   <si>
@@ -217,28 +214,55 @@
     <t>Design the view page where Seat plan and availability will be shown</t>
   </si>
   <si>
-    <t>Route Adding View</t>
-  </si>
-  <si>
-    <t>Design the view where admin can add routes by selecting location by dropdown</t>
-  </si>
-  <si>
-    <t>tasmia</t>
-  </si>
-  <si>
-    <t>Bus operator view</t>
-  </si>
-  <si>
-    <t>Design a form for adding a new bus operator</t>
-  </si>
-  <si>
-    <t>0.5hours</t>
-  </si>
-  <si>
-    <t>Seat base in database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seats will be assigned in the database </t>
+    <t>Design DateWiseTrip View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design A form for CRUD operation on datewise trip model </t>
+  </si>
+  <si>
+    <t>Bonny</t>
+  </si>
+  <si>
+    <t>Add DateWiseTrip</t>
+  </si>
+  <si>
+    <t>Complete addition process for a datwise trip for every bus operator,for every route</t>
+  </si>
+  <si>
+    <t>1.5 hrs</t>
+  </si>
+  <si>
+    <t>Edit DateWiseTrip</t>
+  </si>
+  <si>
+    <t>Complete editing process for datewise trip</t>
+  </si>
+  <si>
+    <t>Delete DateWiseTrip</t>
+  </si>
+  <si>
+    <t>Complete deletion process for datewise trip</t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>4 hour</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve the bugs </t>
+  </si>
+  <si>
+    <t>1 working day</t>
+  </si>
+  <si>
+    <t>each member will resolve the bugs in their assigned area</t>
   </si>
 </sst>
 </file>
@@ -640,22 +664,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -683,7 +707,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -694,7 +718,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -705,7 +729,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -716,370 +740,396 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1093,7 +1143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1105,7 +1155,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
